--- a/data/trans_orig/P29A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A7A0A01-A817-4778-84BC-E224D0A34175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8BF9DB6-96EB-40FF-B7C7-785BA3F113D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{432A57FD-0874-4C47-8745-B14F2F01CC9E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D70BA666-7243-4111-8D02-C6536DD14C87}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
   <si>
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
@@ -75,7 +75,7 @@
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>97,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,262 +84,268 @@
     <t>97,77%</t>
   </si>
   <si>
-    <t>93,02%</t>
+    <t>92,89%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>96,58%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -348,22 +354,22 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,52%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>97,71%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>97,82%</t>
   </si>
   <si>
     <t>99,54%</t>
@@ -372,16 +378,16 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>1,11%</t>
@@ -390,7 +396,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -399,97 +405,109 @@
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>98,76%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -501,475 +519,481 @@
     <t>84,36%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>64,22%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
   </si>
   <si>
     <t>75,92%</t>
   </si>
   <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>35,78%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>24,08%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>71,72%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>73,72%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>28,28%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>26,28%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>92,81%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>93,68%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>6,32%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>85,81%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>93,61%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>63,36%</t>
   </si>
   <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>36,64%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23742DC9-4C95-43A7-854D-ECECF4F6BAAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C59F8B-C58B-44AA-B741-D74164749BDA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,7 +1720,7 @@
         <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,13 +1735,13 @@
         <v>2089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -1726,13 +1750,13 @@
         <v>3987</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1741,13 +1765,13 @@
         <v>6076</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,7 +1827,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1815,10 +1839,10 @@
         <v>183455</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1830,10 +1854,10 @@
         <v>114659</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1845,13 +1869,13 @@
         <v>298115</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1890,13 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1881,13 +1905,13 @@
         <v>1899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1896,13 +1920,13 @@
         <v>2833</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,7 +1982,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1967,16 +1991,16 @@
         <v>201</v>
       </c>
       <c r="D13" s="7">
-        <v>213033</v>
+        <v>213032</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -1985,13 +2009,13 @@
         <v>135884</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>328</v>
@@ -2000,13 +2024,13 @@
         <v>348916</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2045,13 @@
         <v>10849</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2036,13 +2060,13 @@
         <v>8012</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2051,13 +2075,13 @@
         <v>18861</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2093,7 @@
         <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>223882</v>
+        <v>223881</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -2176,7 +2200,7 @@
         <v>1511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
@@ -2316,7 +2340,7 @@
         <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2355,13 @@
         <v>1957</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2346,13 +2370,13 @@
         <v>1931</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2361,13 +2385,13 @@
         <v>3888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,7 +2447,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2435,10 +2459,10 @@
         <v>368902</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -2450,13 +2474,13 @@
         <v>248952</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>554</v>
@@ -2465,13 +2489,13 @@
         <v>617855</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2510,13 @@
         <v>1086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2501,13 +2525,13 @@
         <v>5823</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -2516,13 +2540,13 @@
         <v>6909</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,7 +2602,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2590,13 +2614,13 @@
         <v>418737</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -2605,13 +2629,13 @@
         <v>242511</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>621</v>
@@ -2620,13 +2644,13 @@
         <v>661248</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2665,13 @@
         <v>5070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2656,13 +2680,13 @@
         <v>7302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -2671,13 +2695,13 @@
         <v>12372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2769,13 @@
         <v>1878007</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>1027</v>
@@ -2760,13 +2784,13 @@
         <v>1071986</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M28" s="7">
         <v>2803</v>
@@ -2775,13 +2799,13 @@
         <v>2949993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2820,13 @@
         <v>24517</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -2811,13 +2835,13 @@
         <v>31194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>54</v>
@@ -2826,13 +2850,13 @@
         <v>55711</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2912,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6903F4A6-994F-4E41-9B4A-89BAC79D862B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41229873-4919-404E-A7B4-5DA7A89407A1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2929,7 +2953,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3036,13 +3060,13 @@
         <v>154480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>163</v>
@@ -3051,13 +3075,13 @@
         <v>84957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>347</v>
@@ -3066,13 +3090,13 @@
         <v>239437</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3111,13 @@
         <v>28633</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -3102,13 +3126,13 @@
         <v>47331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>110</v>
@@ -3117,13 +3141,13 @@
         <v>75964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3215,13 @@
         <v>253202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -3206,13 +3230,13 @@
         <v>125298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>326</v>
@@ -3221,13 +3245,13 @@
         <v>378501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3266,13 @@
         <v>53809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -3257,13 +3281,13 @@
         <v>49400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3272,13 +3296,13 @@
         <v>103208</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3358,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3370,13 @@
         <v>188942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -3361,13 +3385,13 @@
         <v>95313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>336</v>
@@ -3376,13 +3400,13 @@
         <v>284255</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3421,13 @@
         <v>7576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -3412,13 +3436,13 @@
         <v>20493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -3427,13 +3451,13 @@
         <v>28069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3513,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3501,13 +3525,13 @@
         <v>182311</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3516,13 +3540,13 @@
         <v>134165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
@@ -3531,13 +3555,13 @@
         <v>316475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3576,13 @@
         <v>19288</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -3567,13 +3591,13 @@
         <v>33062</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3582,13 +3606,13 @@
         <v>52350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3680,13 @@
         <v>34529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3671,13 +3695,13 @@
         <v>9796</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3686,13 +3710,13 @@
         <v>44326</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3731,13 @@
         <v>4354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3722,13 +3746,13 @@
         <v>6150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3737,13 +3761,13 @@
         <v>10503</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3835,13 @@
         <v>169003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -3826,13 +3850,13 @@
         <v>103336</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
@@ -3841,13 +3865,13 @@
         <v>272338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3886,13 @@
         <v>10133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3877,13 +3901,13 @@
         <v>8471</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -3892,13 +3916,13 @@
         <v>18605</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,7 +3978,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3966,13 +3990,13 @@
         <v>309088</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>289</v>
@@ -3981,13 +4005,13 @@
         <v>322609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>581</v>
@@ -3996,13 +4020,13 @@
         <v>631696</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4041,13 @@
         <v>53450</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>99</v>
@@ -4032,13 +4056,13 @@
         <v>79308</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>155</v>
@@ -4047,13 +4071,13 @@
         <v>132758</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4133,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4121,13 +4145,13 @@
         <v>327147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>137</v>
@@ -4136,13 +4160,13 @@
         <v>122310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>440</v>
@@ -4151,13 +4175,13 @@
         <v>449457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4196,13 @@
         <v>189161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>206</v>
@@ -4187,13 +4211,13 @@
         <v>168121</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>335</v>
@@ -4202,13 +4226,13 @@
         <v>357282</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4300,13 @@
         <v>1618703</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>1206</v>
@@ -4291,13 +4315,13 @@
         <v>997784</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>2794</v>
@@ -4306,13 +4330,13 @@
         <v>2616487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4351,13 @@
         <v>366403</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
@@ -4342,13 +4366,13 @@
         <v>412336</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>809</v>
@@ -4357,13 +4381,13 @@
         <v>778738</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4443,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8BF9DB6-96EB-40FF-B7C7-785BA3F113D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5013B85-91D9-480E-A717-38754FF9525E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D70BA666-7243-4111-8D02-C6536DD14C87}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1EB5883E-FE34-402B-A2B9-F1E9537B6E0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="317">
   <si>
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
@@ -516,484 +516,478 @@
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2023 (Tasa respuesta: 41,21%)</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C59F8B-C58B-44AA-B741-D74164749BDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022CF336-0493-404F-A300-F2F2106A44A7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2766,7 +2760,7 @@
         <v>1776</v>
       </c>
       <c r="D28" s="7">
-        <v>1878007</v>
+        <v>1878006</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>139</v>
@@ -2868,7 +2862,7 @@
         <v>1800</v>
       </c>
       <c r="D30" s="7">
-        <v>1902524</v>
+        <v>1902523</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -2936,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41229873-4919-404E-A7B4-5DA7A89407A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6942DC7-FF50-422D-BD03-62A20C6DBFA1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3057,7 +3051,7 @@
         <v>184</v>
       </c>
       <c r="D4" s="7">
-        <v>154480</v>
+        <v>179889</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>159</v>
@@ -3072,7 +3066,7 @@
         <v>163</v>
       </c>
       <c r="I4" s="7">
-        <v>84957</v>
+        <v>90683</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>162</v>
@@ -3087,7 +3081,7 @@
         <v>347</v>
       </c>
       <c r="N4" s="7">
-        <v>239437</v>
+        <v>270572</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>165</v>
@@ -3108,7 +3102,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>28633</v>
+        <v>34415</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>168</v>
@@ -3123,7 +3117,7 @@
         <v>78</v>
       </c>
       <c r="I5" s="7">
-        <v>47331</v>
+        <v>53715</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>171</v>
@@ -3138,7 +3132,7 @@
         <v>110</v>
       </c>
       <c r="N5" s="7">
-        <v>75964</v>
+        <v>88130</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>174</v>
@@ -3159,7 +3153,7 @@
         <v>216</v>
       </c>
       <c r="D6" s="7">
-        <v>183113</v>
+        <v>214304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -3174,7 +3168,7 @@
         <v>241</v>
       </c>
       <c r="I6" s="7">
-        <v>132288</v>
+        <v>144398</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -3189,7 +3183,7 @@
         <v>457</v>
       </c>
       <c r="N6" s="7">
-        <v>315401</v>
+        <v>358702</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -3212,7 +3206,7 @@
         <v>180</v>
       </c>
       <c r="D7" s="7">
-        <v>253202</v>
+        <v>255636</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>177</v>
@@ -3227,7 +3221,7 @@
         <v>146</v>
       </c>
       <c r="I7" s="7">
-        <v>125298</v>
+        <v>116970</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>180</v>
@@ -3242,7 +3236,7 @@
         <v>326</v>
       </c>
       <c r="N7" s="7">
-        <v>378501</v>
+        <v>372606</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>183</v>
@@ -3263,7 +3257,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="7">
-        <v>53809</v>
+        <v>54579</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>186</v>
@@ -3278,7 +3272,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="7">
-        <v>49400</v>
+        <v>45988</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>189</v>
@@ -3293,7 +3287,7 @@
         <v>90</v>
       </c>
       <c r="N8" s="7">
-        <v>103208</v>
+        <v>100567</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>192</v>
@@ -3314,7 +3308,7 @@
         <v>214</v>
       </c>
       <c r="D9" s="7">
-        <v>307011</v>
+        <v>310215</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -3329,7 +3323,7 @@
         <v>202</v>
       </c>
       <c r="I9" s="7">
-        <v>174698</v>
+        <v>162958</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -3344,7 +3338,7 @@
         <v>416</v>
       </c>
       <c r="N9" s="7">
-        <v>481709</v>
+        <v>473173</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -3367,7 +3361,7 @@
         <v>212</v>
       </c>
       <c r="D10" s="7">
-        <v>188942</v>
+        <v>185186</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>195</v>
@@ -3382,7 +3376,7 @@
         <v>124</v>
       </c>
       <c r="I10" s="7">
-        <v>95313</v>
+        <v>89812</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>198</v>
@@ -3397,16 +3391,16 @@
         <v>336</v>
       </c>
       <c r="N10" s="7">
-        <v>284255</v>
+        <v>274998</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,46 +3412,46 @@
         <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>7576</v>
+        <v>7369</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>20493</v>
+        <v>19304</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
       </c>
       <c r="N11" s="7">
-        <v>28069</v>
+        <v>26673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,7 +3463,7 @@
         <v>221</v>
       </c>
       <c r="D12" s="7">
-        <v>196518</v>
+        <v>192555</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -3484,7 +3478,7 @@
         <v>154</v>
       </c>
       <c r="I12" s="7">
-        <v>115806</v>
+        <v>109116</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -3499,7 +3493,7 @@
         <v>375</v>
       </c>
       <c r="N12" s="7">
-        <v>312324</v>
+        <v>301671</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -3522,46 +3516,46 @@
         <v>161</v>
       </c>
       <c r="D13" s="7">
-        <v>182311</v>
+        <v>178178</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
       </c>
       <c r="I13" s="7">
-        <v>134165</v>
+        <v>124345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>341</v>
       </c>
       <c r="N13" s="7">
-        <v>316475</v>
+        <v>302524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,46 +3567,46 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>19288</v>
+        <v>19114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>33062</v>
+        <v>85948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>52350</v>
+        <v>105061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,7 +3618,7 @@
         <v>177</v>
       </c>
       <c r="D15" s="7">
-        <v>201599</v>
+        <v>197292</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -3639,7 +3633,7 @@
         <v>208</v>
       </c>
       <c r="I15" s="7">
-        <v>167227</v>
+        <v>210293</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -3654,7 +3648,7 @@
         <v>385</v>
       </c>
       <c r="N15" s="7">
-        <v>368825</v>
+        <v>407585</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -3677,46 +3671,46 @@
         <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>34529</v>
+        <v>31146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>9796</v>
+        <v>8583</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>44326</v>
+        <v>39729</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,46 +3722,46 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>4354</v>
+        <v>3954</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>6150</v>
+        <v>5598</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
       </c>
       <c r="N17" s="7">
-        <v>10503</v>
+        <v>9552</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,7 +3773,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>38883</v>
+        <v>35100</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -3794,7 +3788,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>15946</v>
+        <v>14181</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -3809,7 +3803,7 @@
         <v>80</v>
       </c>
       <c r="N18" s="7">
-        <v>54829</v>
+        <v>49281</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -3832,46 +3826,46 @@
         <v>210</v>
       </c>
       <c r="D19" s="7">
-        <v>169003</v>
+        <v>164638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>62</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
       </c>
       <c r="I19" s="7">
-        <v>103336</v>
+        <v>96420</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>358</v>
       </c>
       <c r="N19" s="7">
-        <v>272338</v>
+        <v>261057</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3877,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>10133</v>
+        <v>9726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>258</v>
@@ -3898,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>8471</v>
+        <v>7814</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>259</v>
@@ -3913,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>18605</v>
+        <v>17541</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>262</v>
@@ -3934,7 +3928,7 @@
         <v>220</v>
       </c>
       <c r="D21" s="7">
-        <v>179136</v>
+        <v>174364</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -3949,7 +3943,7 @@
         <v>159</v>
       </c>
       <c r="I21" s="7">
-        <v>111807</v>
+        <v>104234</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -3964,7 +3958,7 @@
         <v>379</v>
       </c>
       <c r="N21" s="7">
-        <v>290943</v>
+        <v>278598</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3987,7 +3981,7 @@
         <v>292</v>
       </c>
       <c r="D22" s="7">
-        <v>309088</v>
+        <v>308093</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>265</v>
@@ -4002,7 +3996,7 @@
         <v>289</v>
       </c>
       <c r="I22" s="7">
-        <v>322609</v>
+        <v>401554</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>268</v>
@@ -4017,7 +4011,7 @@
         <v>581</v>
       </c>
       <c r="N22" s="7">
-        <v>631696</v>
+        <v>709646</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>271</v>
@@ -4038,7 +4032,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>53450</v>
+        <v>53059</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>274</v>
@@ -4053,7 +4047,7 @@
         <v>99</v>
       </c>
       <c r="I23" s="7">
-        <v>79308</v>
+        <v>74265</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>277</v>
@@ -4068,7 +4062,7 @@
         <v>155</v>
       </c>
       <c r="N23" s="7">
-        <v>132758</v>
+        <v>127324</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>280</v>
@@ -4089,7 +4083,7 @@
         <v>348</v>
       </c>
       <c r="D24" s="7">
-        <v>362538</v>
+        <v>361152</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -4104,7 +4098,7 @@
         <v>388</v>
       </c>
       <c r="I24" s="7">
-        <v>401917</v>
+        <v>475819</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -4119,7 +4113,7 @@
         <v>736</v>
       </c>
       <c r="N24" s="7">
-        <v>764454</v>
+        <v>836970</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -4142,7 +4136,7 @@
         <v>303</v>
       </c>
       <c r="D25" s="7">
-        <v>327147</v>
+        <v>277537</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>283</v>
@@ -4157,7 +4151,7 @@
         <v>137</v>
       </c>
       <c r="I25" s="7">
-        <v>122310</v>
+        <v>99825</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>286</v>
@@ -4172,16 +4166,16 @@
         <v>440</v>
       </c>
       <c r="N25" s="7">
-        <v>449457</v>
+        <v>377362</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,46 +4187,46 @@
         <v>129</v>
       </c>
       <c r="D26" s="7">
-        <v>189161</v>
+        <v>360693</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>206</v>
       </c>
       <c r="I26" s="7">
-        <v>168121</v>
+        <v>139678</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>335</v>
       </c>
       <c r="N26" s="7">
-        <v>357282</v>
+        <v>500371</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,7 +4238,7 @@
         <v>432</v>
       </c>
       <c r="D27" s="7">
-        <v>516308</v>
+        <v>638230</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -4259,7 +4253,7 @@
         <v>343</v>
       </c>
       <c r="I27" s="7">
-        <v>290431</v>
+        <v>239503</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -4274,7 +4268,7 @@
         <v>775</v>
       </c>
       <c r="N27" s="7">
-        <v>806739</v>
+        <v>877733</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -4297,46 +4291,46 @@
         <v>1588</v>
       </c>
       <c r="D28" s="7">
-        <v>1618703</v>
+        <v>1580302</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>1206</v>
       </c>
       <c r="I28" s="7">
-        <v>997784</v>
+        <v>1028192</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>2794</v>
       </c>
       <c r="N28" s="7">
-        <v>2616487</v>
+        <v>2608494</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,46 +4342,46 @@
         <v>292</v>
       </c>
       <c r="D29" s="7">
-        <v>366403</v>
+        <v>542910</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>517</v>
       </c>
       <c r="I29" s="7">
-        <v>412336</v>
+        <v>432309</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>809</v>
       </c>
       <c r="N29" s="7">
-        <v>778738</v>
+        <v>975219</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,7 +4393,7 @@
         <v>1880</v>
       </c>
       <c r="D30" s="7">
-        <v>1985106</v>
+        <v>2123212</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -4414,7 +4408,7 @@
         <v>1723</v>
       </c>
       <c r="I30" s="7">
-        <v>1410120</v>
+        <v>1460501</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -4429,7 +4423,7 @@
         <v>3603</v>
       </c>
       <c r="N30" s="7">
-        <v>3395225</v>
+        <v>3583713</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
